--- a/engine0/downloaded_file.xlsx
+++ b/engine0/downloaded_file.xlsx
@@ -138,12 +138,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>문화체육관광부</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>한국관광협회중앙회</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -153,27 +153,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025년 관광진흥개발기금 관광사업체 운영자금 특별융자 지원 지침 변경 공고</t>
+          <t>2025년 정책자금 상환연장 대상 확대 공고</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104771</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105681</t>
         </is>
       </c>
     </row>
@@ -185,12 +185,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>경남신용보증재단</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -200,12 +200,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[경남] 2025년 1인 자영업자 사회보험망(고용ㆍ산재보험료) 지원사업 공고</t>
+          <t>[경기] 부천시 중소기업 수출보험료 지원사업 참가기업 모집 공고</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -215,12 +215,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104740</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105675</t>
         </is>
       </c>
     </row>
@@ -232,12 +232,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>경남신용보증재단</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -247,12 +247,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[인천] 계양구 2025년 중소기업육성기금 융자계획 공고</t>
+          <t>[경남] 2025년 소상공인 생애주기별 맞춤지원 사업 시행 공고</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -262,12 +262,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104723</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105668</t>
         </is>
       </c>
     </row>
@@ -279,12 +279,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>대구신용보증재단</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -294,12 +294,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[울산] 남구 2025년 중소기업 경영안정자금 융자계획 공고</t>
+          <t>[대구] 북구 2025년 청년창업 특례보증 지원 공고</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -309,12 +309,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104710</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105652</t>
         </is>
       </c>
     </row>
@@ -326,12 +326,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>해양수산부</t>
+          <t>제주특별자치도</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>한국해양진흥공사</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -341,27 +341,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025년 상반기 친환경 설비개량 이차보전사업 시행 공고</t>
+          <t>[제주] 2025년 상반기 관광진흥기금 융자 및 상환지원 계획 공고</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104701</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105600</t>
         </is>
       </c>
     </row>
@@ -373,12 +373,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>농림축산식품부</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>농업정책보험금융원</t>
+          <t>대전테크노파크</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -388,27 +388,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025년 농식품신산업분야 혁신 프리미어 1000 모집 공고</t>
+          <t>[대전] 2025년 바이오테크코리아(바이오유망기업 IR&amp;파트너링) 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104659</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105606</t>
         </is>
       </c>
     </row>
@@ -420,12 +420,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>산업통상자원부</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>한국산업기술진흥원</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -435,27 +435,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>혁신 프리미어 1000 산업통상자원부 선정계획 공고</t>
+          <t>[대전] 2025년 1인 영세 자영업자 고용ㆍ산재 보험료 지원사업 모집 공고</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104684</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105569</t>
         </is>
       </c>
     </row>
@@ -467,12 +467,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>농림축산식품부</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>한국농어촌공사</t>
+          <t>충청북도기업진흥원</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -482,27 +482,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025년 농식품산업 해외진출지원 융자사업 지원대상자 모집 공고</t>
+          <t>[충북] 2025년 중소기업육성자금 융자(이차보전) 지원계획 변경 공고</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>2025-03-04</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104674</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105538</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>산업통상자원부</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>한국원자력산업협회</t>
+          <t>광주신용보증재단</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -529,27 +529,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025년 원전 생태계 금융지원사업 참여기업 모집 공고</t>
+          <t>[광주] 북구 2025년 소상공인 대출 지원사업(특례보증ㆍ포용금융) 공고</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104580</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105529</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>대전일자리경제진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -576,27 +576,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[대전] 소상공인 육아휴직자 대체인력 인건비 지원사업 공고</t>
+          <t>2025년 중소기업 정책자금 융자계획 변경 공고</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104574</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105478</t>
         </is>
       </c>
     </row>
@@ -608,12 +608,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>산업통상자원부</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>울산경제일자리진흥원</t>
+          <t>한국에너지공단 신재생에너지센터</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -623,27 +623,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[울산] 중구 2025년 중소기업 경영안정자금 융자계획 공고</t>
+          <t>2025년 신ㆍ재생에너지 금융지원사업 지원 공고</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104589</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105497</t>
         </is>
       </c>
     </row>
@@ -655,12 +655,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -670,27 +670,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[인천] 2025년 식품진흥기금 융자사업 공고</t>
+          <t>2025년 소상공인 대환대출 지원계획 공고</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104563</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105451</t>
         </is>
       </c>
     </row>
@@ -702,12 +702,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>세종특별자치시</t>
+          <t>산업통상자원부</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>한국디자인진흥원</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -717,27 +717,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[세종] 2025년 식품진흥기금 융자사업 시행 공고</t>
+          <t>12차 디자인전문기업 금융지원 희망기업 모집 공고</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104561</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105447</t>
         </is>
       </c>
     </row>
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>세종특별자치시</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>한국자활복지개발원</t>
+          <t>대전상공회의소</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[세종] 2025년 자활기업 금융지원(이차보전) 계획 공고</t>
+          <t>[충남] 2025년 제조물 책임(PL)보험료 지원사업 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104554</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105445</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>광주경제진흥상생일자리재단</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025년 우리동네 크라우드펀딩 지원사업(후원형) 소상공인 모집 공고</t>
+          <t>[광주] 2025년 영세 소상공인 중소금융권 금융비용 지원사업 공고</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104548</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105444</t>
         </is>
       </c>
     </row>
@@ -843,12 +843,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>경기도경제과학진흥원</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -858,27 +858,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025년 우리동네 크라우드펀딩 지원사업(증권형) 소상공인 모집 공고</t>
+          <t>[경기] 2025년 중소기업 환변동보험 지원사업 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104546</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105442</t>
         </is>
       </c>
     </row>
@@ -890,12 +890,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>울산경제일자리진흥원</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -905,27 +905,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025년 우리동네 크라우드펀딩 지원사업(대출형) 소상공인 모집 공고</t>
+          <t>[울산] 2025년 중소기업 육성자금 (시설자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104545</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105417</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>용인상공회의소</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -952,27 +952,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[서울] 2025년 재활용사업자 육성자금 융자 지원 계획 공고</t>
+          <t>[경기] 용인시 2025년 중소기업 제조물배상책임(PL)보험료 지원사업 공고</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104506</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105371</t>
         </is>
       </c>
     </row>
@@ -984,12 +984,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>부산광역시수산자원연구소</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -999,27 +999,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[부산] 2025년 수산업경영인 선발 및 지원사업 시행계획 공고</t>
+          <t>[서울] 종로구 2025년 상반기 중소기업육성기금 융자지원 계획 공고</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104480</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105308</t>
         </is>
       </c>
     </row>
@@ -1031,12 +1031,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>한국무역보험공사</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1046,27 +1046,27 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[경남] 2025년 식품진흥기금 융자금 지원계획 공고</t>
+          <t>[부산] 2025년 단체보험 가입희망 중소기업 모집 공고</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104485</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105325</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>농촌진흥청</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>한국농업기술진흥원</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025년 상반기 기술창업 자금지원(융자)사업 수정 공고</t>
+          <t>[경북] 구미시 2025년 중소기업 신성장동행지원자금 융자지원 계획 공고</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104458</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105296</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>광주경제진흥상생일자리재단</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[광주] 2025년 수출진흥자금 융자지원 계획 공고</t>
+          <t>[경북] 구미시 2025년 3월 중소기업 운전자금 융자지원 계획 공고</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104450</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105295</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>광주여성가족재단</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[광주] 2차 소상공인 육아응원패키지 1인 여성 자영업자 임신ㆍ출산 지원 사업 사업 참여자 모집 공고</t>
+          <t>[경북] 구미시 2025년 3월 중소기업 시설자금 융자지원 계획 공고</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104449</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105278</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>방위사업청</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>국방기술진흥연구소</t>
+          <t>한국무역보험공사광주전남지사</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1234,27 +1234,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025년 혁신프리미어 1,000 방위산업 분야 대상기업 선정 공고</t>
+          <t>[전남] 2025년 중소기업 수출보험료 지원사업 신청안내 변경 공고</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104439</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105293</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>부산경제진흥원</t>
+          <t>경상북도어업기술센터</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1281,27 +1281,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[부산] 2025년 중소기업 자금지원계획 수정 공고</t>
+          <t>[경북] 2025년 수산업경영인 선발 및 지원사업 모집 재공고</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104412</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105288</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1328,27 +1328,27 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[서울] 식품진흥기금 융자계획 공고</t>
+          <t>[서울] 강남구 2025년 상반기 중소기업육성기금 융자지원 계획 공고</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104426</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105183</t>
         </is>
       </c>
     </row>
@@ -1360,12 +1360,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>광주경제진흥상생일자리재단</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1375,27 +1375,27 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[충남] 2025년 제1차 예비사회적기업 지정계획 공고</t>
+          <t>[광주] 2025년 1인 자영업자 및 소상공인 사회보험료 지원사업 공고</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104421</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105017</t>
         </is>
       </c>
     </row>
@@ -1407,12 +1407,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>산업통상자원부</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>기술보증기금</t>
+          <t>한국산업기술진흥원</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1422,27 +1422,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[부산] 2025년 탄소저감 기술기업 금융비용 전부 지원 사업 참여기업 모집 공고</t>
+          <t>2025년 국가첨단전략산업 기술혁신 융자사업 지원대상 기업모집 공고</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104378</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104916</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>경상북도어업기술센터</t>
+          <t>경남신용보증재단</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1469,27 +1469,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[경북] 2025년 수산업경영인 선발 및 지원사업 모집 공고</t>
+          <t>[경남] 2025년 1인 자영업자 사회보험망(고용ㆍ산재보험료) 지원사업 공고</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104377</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104740</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>경남투자경제진흥원</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1516,27 +1516,27 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[경남] 2025년 상반기 중소기업육성자금 지원계획 공고</t>
+          <t>[인천] 계양구 2025년 중소기업육성기금 융자계획 공고</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104343</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104723</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1563,27 +1563,27 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[경남] 진주시 2025년 청년농업인(청년창업형 후계농업경영인) 영농정착 지원사업 신청 연장 공고</t>
+          <t>[울산] 남구 2025년 중소기업 경영안정자금 융자계획 공고</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104319</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104710</t>
         </is>
       </c>
     </row>
@@ -1595,12 +1595,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>산업통상자원부</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>한국산업기술진흥원</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1610,27 +1610,27 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[경남] 진주시 2025년 후계농업경영인 선발 및 지원사업 신청 연장 공고</t>
+          <t>혁신 프리미어 1000 산업통상자원부 선정계획 공고</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104326</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104684</t>
         </is>
       </c>
     </row>
@@ -1642,12 +1642,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>울산경제일자리진흥원</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1657,27 +1657,27 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[울산] 북구 2025년 중소기업 경영안정자금 융자계획 공고</t>
+          <t>[대전] 소상공인 육아휴직자 대체인력 인건비 지원사업 공고</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104321</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104574</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>대중소기업농어업협력재단</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>중소기업 기술보호 정책보험 지원사업(2025년 중소기업 기술보호 지원사업 공고)</t>
+          <t>[인천] 2025년 식품진흥기금 융자사업 공고</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1719,12 +1719,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104235</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104563</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1736,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>세종특별자치시</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>지방중소벤처기업청</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1751,27 +1751,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[경남] 한국은행 중소기업 지원자금 지원을 위한 밀집지역 소재 중소기업 금융중개지원대출 신청 공고</t>
+          <t>[세종] 2025년 식품진흥기금 융자사업 시행 공고</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104144</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104561</t>
         </is>
       </c>
     </row>
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>세종특별자치시</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>한국자활복지개발원</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025년 민간투자연계형 매칭융자(LIPSⅠ) 소상공인 모집 공고</t>
+          <t>[세종] 2025년 자활기업 금융지원(이차보전) 계획 공고</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1813,12 +1813,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104112</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104554</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>한국벤처투자</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1845,27 +1845,27 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>지방시대 벤처펀드 참여 지자체 모집 공고</t>
+          <t>2025년 우리동네 크라우드펀딩 지원사업(후원형) 소상공인 모집 공고</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104133</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104548</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1892,27 +1892,27 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[경남] 2025년 농어촌진흥기금 융자 시행계획 공고</t>
+          <t>2025년 우리동네 크라우드펀딩 지원사업(증권형) 소상공인 모집 공고</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104126</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104546</t>
         </is>
       </c>
     </row>
@@ -1924,12 +1924,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1939,12 +1939,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[제주] 식품진흥기금 융자지원 계획 공고</t>
+          <t>2025년 우리동네 크라우드펀딩 지원사업(대출형) 소상공인 모집 공고</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1954,12 +1954,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104094</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104545</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>경기신용보증재단</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1986,12 +1986,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[경기] 부천시 2025년 소상공인 특례보증ㆍ이차보전 지원계획 공고</t>
+          <t>[경남] 2025년 식품진흥기금 융자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104087</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104485</t>
         </is>
       </c>
     </row>
@@ -2018,12 +2018,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>농촌진흥청</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>광주경제진흥상생일자리재단</t>
+          <t>한국농업기술진흥원</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2033,27 +2033,27 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[광주] 2025년 상반기 경영안정자금 지원계획 공고</t>
+          <t>2025년 상반기 기술창업 자금지원(융자)사업 수정 공고</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104067</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104458</t>
         </is>
       </c>
     </row>
@@ -2065,12 +2065,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>신용보증기금</t>
+          <t>광주경제진흥상생일자리재단</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2080,27 +2080,27 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[충북] 2025년 사회적기업 육성자금 이차보전금 지원계획 공고</t>
+          <t>[광주] 2025년 수출진흥자금 융자지원 계획 공고</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104066</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104450</t>
         </is>
       </c>
     </row>
@@ -2112,12 +2112,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>인천광역시수산기술지원센터</t>
+          <t>부산경제진흥원</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2127,27 +2127,27 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025년 양식어가 배합사료 구매자금 지원사업 대상자 모집 공고</t>
+          <t>[부산] 2025년 중소기업 자금지원계획 수정 공고</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104058</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104412</t>
         </is>
       </c>
     </row>
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>인천신용보증재단</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2174,27 +2174,27 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[인천] 2025년 상반기 소상공인시장진흥자금 융자 계획 공고</t>
+          <t>[서울] 식품진흥기금 융자계획 공고</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104064</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104426</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>한국무역보험공사제주지사</t>
+          <t>기술보증기금</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2221,12 +2221,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[제주] 2025년 수출보험료 지원사업 모집 공고</t>
+          <t>[부산] 2025년 탄소저감 기술기업 금융비용 전부 지원 사업 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104050</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104378</t>
         </is>
       </c>
     </row>
@@ -2253,12 +2253,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>경상남도수산안전기술원</t>
+          <t>대중소기업농어업협력재단</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2268,27 +2268,27 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025년 양식어가 배합사료 구매자금 지원사업 신청 공고</t>
+          <t>중소기업 기술보호 정책보험 지원사업(2025년 중소기업 기술보호 지원사업 공고)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104032</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104235</t>
         </is>
       </c>
     </row>
@@ -2300,12 +2300,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>경기도해양수산자원연구소</t>
+          <t>지방중소벤처기업청</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2315,27 +2315,27 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025년 양식어가 배합사료 구매자금 지원사업 대상자 모집 공고</t>
+          <t>[경남] 한국은행 중소기업 지원자금 지원을 위한 밀집지역 소재 중소기업 금융중개지원대출 신청 공고</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104029</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104144</t>
         </is>
       </c>
     </row>
@@ -2347,12 +2347,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>문화체육관광부</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>신용보증재단중앙회</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2362,27 +2362,27 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025년 관광진흥개발기금 신용보증부 운영자금 특별융자 지원 지침 공고</t>
+          <t>2025년 민간투자연계형 매칭융자(LIPSⅠ) 소상공인 모집 공고</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103978</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104112</t>
         </is>
       </c>
     </row>
@@ -2394,12 +2394,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>제주특별자치도</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[인천] 서구 2025년 중소기업육성기금 융자계획 공고</t>
+          <t>[제주] 식품진흥기금 융자지원 계획 공고</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2424,12 +2424,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103963</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104094</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>농촌진흥청</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>한국농업기술진흥원</t>
+          <t>경기신용보증재단</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2456,27 +2456,27 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025년 상반기 기술창업 자금지원(융자)사업 공고</t>
+          <t>[경기] 부천시 2025년 소상공인 특례보증ㆍ이차보전 지원계획 공고</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103933</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104087</t>
         </is>
       </c>
     </row>
@@ -2488,12 +2488,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>인천테크노파크</t>
+          <t>광주경제진흥상생일자리재단</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_이자차액보전) 지원계획 공고</t>
+          <t>[광주] 2025년 상반기 경영안정자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2518,12 +2518,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103922</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104067</t>
         </is>
       </c>
     </row>
@@ -2535,12 +2535,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>인천테크노파크</t>
+          <t>신용보증기금</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2550,27 +2550,27 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_기계공장확보) 지원계획 공고</t>
+          <t>[충북] 2025년 사회적기업 육성자금 이차보전금 지원계획 공고</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103912</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104066</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>인천테크노파크</t>
+          <t>인천신용보증재단</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_벤처창업자금) 지원계획 공고</t>
+          <t>[인천] 2025년 상반기 소상공인시장진흥자금 융자 계획 공고</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103910</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104064</t>
         </is>
       </c>
     </row>
@@ -2629,12 +2629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>제주특별자치도</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>인천테크노파크</t>
+          <t>한국무역보험공사제주지사</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_에너지효율화 자금) 지원계획 공고</t>
+          <t>[제주] 2025년 수출보험료 지원사업 모집 공고</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2654,17 +2654,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103908</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104050</t>
         </is>
       </c>
     </row>
@@ -2676,12 +2676,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>문화체육관광부</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>인천테크노파크</t>
+          <t>신용보증재단중앙회</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2691,27 +2691,27 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_재해기업자금) 지원계획 공고</t>
+          <t>2025년 관광진흥개발기금 신용보증부 운영자금 특별융자 지원 지침 공고</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103906</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103978</t>
         </is>
       </c>
     </row>
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>부산테크노파크</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[부산] 2025년 해양수산산업 창업ㆍ투자지원사업 지원기업 통합 모집 공고</t>
+          <t>[인천] 서구 2025년 중소기업육성기금 융자계획 공고</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2748,17 +2748,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103894</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103963</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>농촌진흥청</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>한국농업기술진흥원</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2785,27 +2785,27 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[경북] 2025년 관광진흥기금 융자사업 공고</t>
+          <t>2025년 상반기 기술창업 자금지원(융자)사업 공고</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103902</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103933</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>산림청</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>산림조합중앙회</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2832,17 +2832,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025년 해외산림자원개발 이차보전 사업 공고</t>
+          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_이자차액보전) 지원계획 공고</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103901</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103922</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[인천] 2025년 중소기업육성자금 지원계획 공고</t>
+          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_기계공장확보) 지원계획 공고</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103880</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103912</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>국토교통부</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>신용보증재단중앙회</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2926,27 +2926,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025년 스마트물류센터 이차보전 지원 사업 공고</t>
+          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_벤처창업자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103887</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103910</t>
         </is>
       </c>
     </row>
@@ -2958,12 +2958,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>세종특별자치시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>세종일자리경제진흥원</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2973,27 +2973,27 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[세종] 2025년 중소기업육성자금 지원계획 공고</t>
+          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_에너지효율화 자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103886</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103908</t>
         </is>
       </c>
     </row>
@@ -3005,12 +3005,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>울산신용보증재단</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3020,27 +3020,27 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[울산] 울주군 2025년 제1차 소상공인 경영안정자금 지원 공고</t>
+          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_재해기업자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103850</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103906</t>
         </is>
       </c>
     </row>
@@ -3052,12 +3052,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>산림청</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>대구신용보증재단</t>
+          <t>산림조합중앙회</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[대구] 2025년 중소기업경영안정자금 지원계획 공고(이자지원)</t>
+          <t>2025년 해외산림자원개발 이차보전 사업 공고</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3077,17 +3077,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103775</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103901</t>
         </is>
       </c>
     </row>
@@ -3099,12 +3099,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>세종특별자치시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>세종신용보증재단</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3114,12 +3114,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[세종] 2025년 소상공인자금 지원계획 공고</t>
+          <t>[인천] 2025년 중소기업육성자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103746</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103880</t>
         </is>
       </c>
     </row>
@@ -3146,12 +3146,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>국토교통부</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>대전신용보증재단</t>
+          <t>신용보증재단중앙회</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3161,12 +3161,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[대전] 소상공인 경영위기극복 특례보증 지원 공고</t>
+          <t>2025년 스마트물류센터 이차보전 지원 사업 공고</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103763</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103887</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>세종특별자치시</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>대구신용보증재단</t>
+          <t>세종일자리경제진흥원</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3208,27 +3208,27 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[대구] 2025년 중소기업경영안정자금(이자지원) 지원계획 공고</t>
+          <t>[세종] 2025년 중소기업육성자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103745</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103886</t>
         </is>
       </c>
     </row>
@@ -3240,12 +3240,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>충북신용보증재단</t>
+          <t>울산신용보증재단</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[충북] 진천군 2025년 1차 소상공인 생거진천 으뜸론(Loan) 지원계획 공고</t>
+          <t>[울산] 울주군 2025년 제1차 소상공인 경영안정자금 지원 공고</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3270,12 +3270,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103739</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103850</t>
         </is>
       </c>
     </row>
@@ -3287,12 +3287,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>충북신용보증재단</t>
+          <t>대구신용보증재단</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3302,12 +3302,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[충북] 옥천군 2025년 소상공인 이자차액보전금 지원사업 공고</t>
+          <t>[대구] 2025년 중소기업경영안정자금 지원계획 공고(이자지원)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103742</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103775</t>
         </is>
       </c>
     </row>
@@ -3334,12 +3334,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>세종특별자치시</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>충북신용보증재단</t>
+          <t>세종신용보증재단</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3349,12 +3349,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[충북] 증평군 소상공인 지원자금 이차보전금 신청 공고</t>
+          <t>[세종] 2025년 소상공인자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103720</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103746</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>충북신용보증재단</t>
+          <t>대전신용보증재단</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[충북] 음성군 2025년 소상공인 지원자금 지원계획 공고</t>
+          <t>[대전] 소상공인 경영위기극복 특례보증 지원 공고</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103737</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103763</t>
         </is>
       </c>
     </row>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>충북신용보증재단</t>
+          <t>대구신용보증재단</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3443,12 +3443,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[충북] 제천시 2025년 소상공인 이차보전금 신청 공고</t>
+          <t>[대구] 2025년 중소기업경영안정자금(이자지원) 지원계획 공고</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103736</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103745</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>대전일자리경제진흥원</t>
+          <t>충북신용보증재단</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3490,17 +3490,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[대전] 소상공인 난임부부 시술비 지원사업 공고</t>
+          <t>[충북] 진천군 2025년 1차 소상공인 생거진천 으뜸론(Loan) 지원계획 공고</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103732</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103739</t>
         </is>
       </c>
     </row>
@@ -3522,12 +3522,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>충청남도경제진흥원</t>
+          <t>충북신용보증재단</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3537,12 +3537,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[충남] 2025년 중소기업육성자금 지원계획 공고</t>
+          <t>[충북] 옥천군 2025년 소상공인 이자차액보전금 지원사업 공고</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103715</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103742</t>
         </is>
       </c>
     </row>
@@ -3569,12 +3569,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>경기신용보증재단</t>
+          <t>충북신용보증재단</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[경기] 2025년 중소기업육성자금 융자지원계획 공고</t>
+          <t>[충북] 증평군 소상공인 지원자금 이차보전금 신청 공고</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103722</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103720</t>
         </is>
       </c>
     </row>
@@ -3616,12 +3616,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>경남신용보증재단</t>
+          <t>충북신용보증재단</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3631,27 +3631,27 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[경남] 2025년 소상공인 정책자금 운용계획 공고</t>
+          <t>[충북] 음성군 2025년 소상공인 지원자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
           <t>2025-01-15</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103705</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103737</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>서울신용보증재단</t>
+          <t>충북신용보증재단</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3678,12 +3678,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[서울] 2025년 중소기업육성기금 사회적경제계정 사회적경제기업 융자지원 계획 공고</t>
+          <t>[충북] 제천시 2025년 소상공인 이차보전금 신청 공고</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3693,12 +3693,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103680</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103736</t>
         </is>
       </c>
     </row>
@@ -3710,12 +3710,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3725,27 +3725,27 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[인천] 부평구 2025년 중소기업(소상공인) 운전자금(이차보전금) 융자계획 공고</t>
+          <t>[대전] 소상공인 난임부부 시술비 지원사업 공고</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103667</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103732</t>
         </is>
       </c>
     </row>
@@ -3757,12 +3757,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>환경부</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>한국환경산업기술원</t>
+          <t>충청남도경제진흥원</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3772,27 +3772,27 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025년 1차 미래환경산업육성융자 사업 모집 공고</t>
+          <t>[충남] 2025년 중소기업육성자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103682</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103715</t>
         </is>
       </c>
     </row>
@@ -3804,12 +3804,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>한국무역보험공사충북지사</t>
+          <t>경기신용보증재단</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3819,27 +3819,27 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[충북] 2025년 수출기업 무역보험 지원사업 참여기업 모집 공고</t>
+          <t>[경기] 2025년 중소기업육성자금 융자지원계획 공고</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103642</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103722</t>
         </is>
       </c>
     </row>
@@ -3851,12 +3851,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>기술보증기금</t>
+          <t>경남신용보증재단</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025년 중소기업 매출채권팩토링 지원계획 공고</t>
+          <t>[경남] 2025년 소상공인 정책자금 운용계획 공고</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3881,12 +3881,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103596</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103705</t>
         </is>
       </c>
     </row>
@@ -3898,12 +3898,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>서울신용보증재단</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3913,12 +3913,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025년 중소기업 동반성장 네트워크론 지원계획 공고</t>
+          <t>[서울] 2025년 중소기업육성기금 사회적경제계정 사회적경제기업 융자지원 계획 공고</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3928,12 +3928,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103612</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103680</t>
         </is>
       </c>
     </row>
@@ -3945,12 +3945,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>대전일자리경제진흥원</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3960,27 +3960,27 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[대전] 2025년 상반기 중소기업 창업 및 경쟁력강화사업자금 지원 공고</t>
+          <t>[인천] 부평구 2025년 중소기업(소상공인) 운전자금(이차보전금) 융자계획 공고</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103593</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103667</t>
         </is>
       </c>
     </row>
@@ -3992,12 +3992,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>한국무역보험공사충북지사</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4007,27 +4007,27 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>밸류체인안정화자금-매출채권팩토링(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>[충북] 2025년 수출기업 무역보험 지원사업 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103592</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103642</t>
         </is>
       </c>
     </row>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>기술보증기금</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4054,12 +4054,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>밸류체인안정화자금-동반성장 네트워크론(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>2025년 중소기업 매출채권팩토링 지원계획 공고</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103591</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103596</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>긴급경영안정자금-일시적경영애로(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>2025년 중소기업 동반성장 네트워크론 지원계획 공고</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103590</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103612</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4133,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4148,17 +4148,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>긴급경영안정자금-재해중소기업지원(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>[대전] 2025년 상반기 중소기업 창업 및 경쟁력강화사업자금 지원 공고</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103589</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103593</t>
         </is>
       </c>
     </row>
@@ -4180,12 +4180,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>대전일자리경제진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4195,17 +4195,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[대전] 2025년 상반기 중소기업 구매조건 생산지원자금 지원 공고</t>
+          <t>밸류체인안정화자금-매출채권팩토링(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103605</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103592</t>
         </is>
       </c>
     </row>
@@ -4227,12 +4227,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>대전일자리경제진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4242,17 +4242,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[대전] 2025년 상반기 중소기업 지역특화 협약보증 지원 공고</t>
+          <t>밸류체인안정화자금-동반성장 네트워크론(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103604</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103591</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>재창업자금(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>긴급경영안정자금-일시적경영애로(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103602</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103590</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>민간투자 연계형 매칭융자(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>긴급경영안정자금-재해중소기업지원(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103601</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103589</t>
         </is>
       </c>
     </row>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>혁신성장촉진자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>[대전] 2025년 상반기 중소기업 구매조건 생산지원자금 지원 공고</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103588</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103605</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4430,17 +4430,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[인천] 동구 인구감소(관심)지역 기업지원 특례보증 금융지원 신청 공고</t>
+          <t>[대전] 2025년 상반기 중소기업 지역특화 협약보증 지원 공고</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103587</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103604</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>소공인특화자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>재창업자금(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103580</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103602</t>
         </is>
       </c>
     </row>
@@ -4509,12 +4509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>대전일자리경제진흥원</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4524,17 +4524,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[대전] 2025년 상반기 중소기업 경영안정자금 지원 공고</t>
+          <t>민간투자 연계형 매칭융자(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103586</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103601</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>성장기반자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>혁신성장촉진자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103579</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103588</t>
         </is>
       </c>
     </row>
@@ -4603,12 +4603,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4618,12 +4618,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>청년고용연계자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>[인천] 동구 인구감소(관심)지역 기업지원 특례보증 금융지원 신청 공고</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103577</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103587</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>재도약지원자금-구조개선전용자금(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>소공인특화자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4680,12 +4680,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103582</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103580</t>
         </is>
       </c>
     </row>
@@ -4697,12 +4697,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4712,27 +4712,27 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>재도약지원자금-사업전환자금(사업재편ㆍ산업경쟁력강화ㆍ통상변화대응)(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>[대전] 2025년 상반기 중소기업 경영안정자금 지원 공고</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103575</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103586</t>
         </is>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>재도전특별자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>성장기반자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4774,12 +4774,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103574</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103579</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>재도약지원자금-사업전환자금(일반)(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>청년고용연계자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4821,12 +4821,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103573</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103577</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>특별경영안정자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>재도약지원자금-구조개선전용자금(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103572</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103582</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>신성장기반자금-제조현장스마트화(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>재도약지원자금-사업전환자금(사업재편ㆍ산업경쟁력강화ㆍ통상변화대응)(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103571</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103575</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>신성장기반자금-Net Zero 유망기업 지원(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>재도전특별자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103581</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103574</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>신용취약소상공인자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>재도약지원자금-사업전환자금(일반)(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103560</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103573</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>장애인기업지원자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>특별경영안정자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103570</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103572</t>
         </is>
       </c>
     </row>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>신성장기반자금-스케일업금융(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>신성장기반자금-제조현장스마트화(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103559</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103571</t>
         </is>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>긴급경영안정자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>신성장기반자금-Net Zero 유망기업 지원(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103569</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103581</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>신성장기반자금-혁신성장지원자금(협동화)(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>신용취약소상공인자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103568</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103560</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>일반경영안정자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>장애인기업지원자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103558</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103570</t>
         </is>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>신성장기반자금-혁신성장지원자금(일반)(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>신성장기반자금-스케일업금융(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103565</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103559</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>신시장진출지원자금-수출기업글로벌화(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>긴급경영안정자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103557</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103569</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>신시장진출지원자금-내수기업수출기업화(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>신성장기반자금-혁신성장지원자금(협동화)(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103561</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103568</t>
         </is>
       </c>
     </row>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>혁신창업사업화자금-개발기술사업화자금(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>일반경영안정자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103555</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103558</t>
         </is>
       </c>
     </row>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>혁신창업사업화자금-창업기반지원자금(청년전용창업자금)(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>신성장기반자금-혁신성장지원자금(일반)(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103553</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103565</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>혁신창업사업화자금-창업기반지원자금(일반)(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>신시장진출지원자금-수출기업글로벌화(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103547</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103557</t>
         </is>
       </c>
     </row>
@@ -5543,12 +5543,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>전라남도중소기업일자리경제진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[전남] 2025년 중소기업 육성자금(중소기업특별경영안정자금) 지원계획 공고</t>
+          <t>신시장진출지원자금-내수기업수출기업화(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103531</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103561</t>
         </is>
       </c>
     </row>
@@ -5590,12 +5590,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>전라남도중소기업일자리경제진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[전남] 2025년 중소기업 육성자금(중소유통업 구조개선자금) 지원계획 공고</t>
+          <t>혁신창업사업화자금-개발기술사업화자금(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103529</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103555</t>
         </is>
       </c>
     </row>
@@ -5637,12 +5637,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>전라남도중소기업일자리경제진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[전남] 2025년 중소기업 육성자금(벤처기업육성자금) 지원계획 공고</t>
+          <t>혁신창업사업화자금-창업기반지원자금(청년전용창업자금)(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103545</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103553</t>
         </is>
       </c>
     </row>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>전라남도중소기업일자리경제진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[전남] 2025년 중소기업 육성자금(창업 및 경쟁력강화자금) 지원계획 공고</t>
+          <t>혁신창업사업화자금-창업기반지원자금(일반)(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103528</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103547</t>
         </is>
       </c>
     </row>
@@ -5731,12 +5731,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>문화체육관광부</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>국민체육진흥공단</t>
+          <t>전라남도중소기업일자리경제진흥원</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5746,17 +5746,17 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2025년 국민체육진흥기금 스포츠산업융자(튼튼론) 신청 공고</t>
+          <t>[전남] 2025년 중소기업 육성자금(중소기업특별경영안정자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103500</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103531</t>
         </is>
       </c>
     </row>
@@ -5778,12 +5778,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>전라남도중소기업일자리경제진흥원</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5793,27 +5793,27 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[인천] 동구 2025년 소규모 기업환경 개선사업 모집 공고</t>
+          <t>[전남] 2025년 중소기업 육성자금(중소유통업 구조개선자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103508</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103529</t>
         </is>
       </c>
     </row>
@@ -5825,12 +5825,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>경상북도경제진흥원</t>
+          <t>전라남도중소기업일자리경제진흥원</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5840,12 +5840,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[경북] 2025년 벤처기업 육성자금 운용계획 공고</t>
+          <t>[전남] 2025년 중소기업 육성자금(벤처기업육성자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103499</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103545</t>
         </is>
       </c>
     </row>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>문화체육관광부</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>국민체육진흥공단</t>
+          <t>전라남도중소기업일자리경제진흥원</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5887,27 +5887,27 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2025년 국민체육진흥기금 스포츠산업 이차보전사업 신청 공고</t>
+          <t>[전남] 2025년 중소기업 육성자금(창업 및 경쟁력강화자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103506</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103528</t>
         </is>
       </c>
     </row>
@@ -5919,12 +5919,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>문화체육관광부</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>기술보증기금</t>
+          <t>국민체육진흥공단</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5934,27 +5934,27 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[대구] 달성군 2025년 기술중소기업 특례보증 지원계획 공고</t>
+          <t>2025년 국민체육진흥기금 스포츠산업융자(튼튼론) 신청 공고</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103483</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103500</t>
         </is>
       </c>
     </row>
@@ -5966,12 +5966,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>대구신용보증재단</t>
+          <t>경상북도경제진흥원</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[대구] 달성군 2025년 중소기업 경영안정자금(이차보전) 지원계획 공고</t>
+          <t>[경북] 2025년 벤처기업 육성자금 운용계획 공고</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5996,12 +5996,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103482</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103499</t>
         </is>
       </c>
     </row>
@@ -6013,12 +6013,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>문화체육관광부</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>경기신용보증재단</t>
+          <t>국민체육진흥공단</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6028,27 +6028,27 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[경기] 부천시 2025년 특례보증 지원 계획 공고</t>
+          <t>2025년 국민체육진흥기금 스포츠산업 이차보전사업 신청 공고</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103458</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103506</t>
         </is>
       </c>
     </row>
@@ -6060,12 +6060,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>기술보증기금</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6075,27 +6075,27 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[부산] 사상구 2025년 소상공인 보증료 지원사업 대상자 모집 공고</t>
+          <t>[대구] 달성군 2025년 기술중소기업 특례보증 지원계획 공고</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103467</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103483</t>
         </is>
       </c>
     </row>
@@ -6107,12 +6107,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>대구신용보증재단</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6122,12 +6122,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[울산] 2025년 식품진흥기금 융자사업 시행 공고</t>
+          <t>[대구] 달성군 2025년 중소기업 경영안정자금(이차보전) 지원계획 공고</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6137,12 +6137,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103452</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103482</t>
         </is>
       </c>
     </row>
@@ -6154,12 +6154,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>제주특별자치도경제통상진흥원</t>
+          <t>경기신용보증재단</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[제주] 2025년 중소기업육성자금 융자지원계획 공고</t>
+          <t>[경기] 부천시 2025년 특례보증 지원 계획 공고</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6184,12 +6184,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103449</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103458</t>
         </is>
       </c>
     </row>
@@ -6201,12 +6201,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>울산신용보증재단</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6216,17 +6216,17 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[울산] 2025년 1차 소상공인 경영안정자금 융자지원계획 공고</t>
+          <t>[부산] 사상구 2025년 소상공인 보증료 지원사업 대상자 모집 공고</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103445</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103467</t>
         </is>
       </c>
     </row>
@@ -6248,12 +6248,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>서울신용보증재단</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6263,12 +6263,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[서울] 2025년 중소기업육성자금 융자지원계획 공고</t>
+          <t>[울산] 2025년 식품진흥기금 융자사업 시행 공고</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6278,12 +6278,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103418</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103452</t>
         </is>
       </c>
     </row>
@@ -6295,12 +6295,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>제주특별자치도</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>한국무역보험공사경남지역본부</t>
+          <t>제주특별자치도경제통상진흥원</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[경남] 진주시 2025년 중소기업 개별 수출보험료 지원사업 공고</t>
+          <t>[제주] 2025년 중소기업육성자금 융자지원계획 공고</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6320,17 +6320,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103434</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103449</t>
         </is>
       </c>
     </row>
@@ -6342,12 +6342,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>전라남도중소기업일자리경제진흥원</t>
+          <t>울산신용보증재단</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6357,12 +6357,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[전남] 2025년 중소기업 육성자금 지원계획 공고</t>
+          <t>[울산] 2025년 1차 소상공인 경영안정자금 융자지원계획 공고</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6372,12 +6372,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103413</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103445</t>
         </is>
       </c>
     </row>
@@ -6389,12 +6389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>부산경제진흥원</t>
+          <t>서울신용보증재단</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[부산] 2025년 중소기업 자금지원계획 공고</t>
+          <t>[서울] 2025년 중소기업육성자금 융자지원계획 공고</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -6419,12 +6419,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103423</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103418</t>
         </is>
       </c>
     </row>
@@ -6436,12 +6436,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>인천테크노파크</t>
+          <t>한국무역보험공사경남지역본부</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6451,27 +6451,27 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[인천] 2024년 중소기업 긴급 경영안정자금 지원 공고</t>
+          <t>[경남] 진주시 2025년 중소기업 개별 수출보험료 지원사업 공고</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103377</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103434</t>
         </is>
       </c>
     </row>
@@ -6483,12 +6483,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>문화체육관광부</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>한국관광협회중앙회</t>
+          <t>전라남도중소기업일자리경제진흥원</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6498,27 +6498,27 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2025년 상반기 관광진흥개발기금 융자지원지침 공고</t>
+          <t>[전남] 2025년 중소기업 육성자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103372</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103413</t>
         </is>
       </c>
     </row>
@@ -6530,12 +6530,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>전북특별자치도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>전북특별자치도경제통상진흥원</t>
+          <t>부산경제진흥원</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6545,27 +6545,27 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[전북] 2025년 중소기업 육성자금 융자 지원계획 공고</t>
+          <t>[부산] 2025년 중소기업 자금지원계획 공고</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103392</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103423</t>
         </is>
       </c>
     </row>
@@ -6577,12 +6577,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>문화체육관광부</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>한국관광협회중앙회</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2025년 상반기 관광진흥개발기금 이차보전 지원 지침 공고</t>
+          <t>[인천] 2024년 중소기업 긴급 경영안정자금 지원 공고</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103368</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103377</t>
         </is>
       </c>
     </row>
@@ -6624,12 +6624,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>문화체육관광부</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>충청북도기업진흥원</t>
+          <t>한국관광협회중앙회</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6639,27 +6639,27 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[충북] 2025년 중소기업육성자금 융자(이차보전) 지원계획 공고</t>
+          <t>2025년 상반기 관광진흥개발기금 융자지원지침 공고</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103387</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103372</t>
         </is>
       </c>
     </row>
@@ -6671,12 +6671,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전북특별자치도</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>경상북도경제진흥원</t>
+          <t>전북특별자치도경제통상진흥원</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6686,27 +6686,27 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[경북] 2025년 창업 및 경쟁력강화 사업자금 지원 계획 공고</t>
+          <t>[전북] 2025년 중소기업 육성자금 융자 지원계획 공고</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103381</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103392</t>
         </is>
       </c>
     </row>
@@ -6718,12 +6718,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>문화체육관광부</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>한국관광협회중앙회</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6733,27 +6733,27 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고</t>
+          <t>2025년 상반기 관광진흥개발기금 이차보전 지원 지침 공고</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103358</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103368</t>
         </is>
       </c>
     </row>
@@ -6765,12 +6765,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>충청북도기업진흥원</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6780,27 +6780,27 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2025년 중소기업 정책자금 융자계획 공고</t>
+          <t>[충북] 2025년 중소기업육성자금 융자(이차보전) 지원계획 공고</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103364</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103387</t>
         </is>
       </c>
     </row>
@@ -6812,12 +6812,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>환경부</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>한국환경산업기술원</t>
+          <t>경상북도경제진흥원</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6827,27 +6827,27 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2025년 한국형 녹색채권 발행 이차보전 지원사업 모집 공고</t>
+          <t>[경북] 2025년 창업 및 경쟁력강화 사업자금 지원 계획 공고</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103363</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103381</t>
         </is>
       </c>
     </row>
@@ -6859,12 +6859,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>농림축산식품부</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>한국농수산식품유통공사</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6874,17 +6874,17 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2025년 농수산식품 정책자금 융자 공고</t>
+          <t>2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103362</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103358</t>
         </is>
       </c>
     </row>
@@ -6906,12 +6906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>금융위원회</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>KDB산업은행</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6921,27 +6921,27 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2024년 KDB산업은행 온렌딩 대출 제도 안내</t>
+          <t>2025년 중소기업 정책자금 융자계획 공고</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000097263</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103364</t>
         </is>
       </c>
     </row>
@@ -6953,12 +6953,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>농림축산식품부</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>한국농수산식품유통공사</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6968,27 +6968,27 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>소상공인 정책자금(대리대출) 3차 만기연장 지원 안내</t>
+          <t>2025년 농수산식품 정책자금 융자 공고</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000084838</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103362</t>
         </is>
       </c>
     </row>
@@ -7000,40 +7000,134 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
+          <t>금융위원회</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>KDB산업은행</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2024년 KDB산업은행 온렌딩 대출 제도 안내</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000097263</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
           <t>중소벤처기업부</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>소상공인시장진흥공단</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>금융</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>소상공인 정책자금(대리대출) 3차 만기연장 지원 안내</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000084838</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>중소벤처기업부</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>소상공인시장진흥공단</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>소상공인 정책자금(직접대출) 3차 만기연장 지원 안내</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>2025-09-05</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000084853</t>
         </is>

--- a/engine0/downloaded_file.xlsx
+++ b/engine0/downloaded_file.xlsx
@@ -138,12 +138,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>서울경제진흥원</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -153,27 +153,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025년 정책자금 상환연장 대상 확대 공고</t>
+          <t>[서울] 콘텐츠 기업의 투자유치 활성화를 위한(투자 네크워킹 데이) 리버스 피칭 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105681</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000106128</t>
         </is>
       </c>
     </row>
@@ -185,12 +185,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>해양수산부</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>수협중앙회</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -200,27 +200,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[경기] 부천시 중소기업 수출보험료 지원사업 참가기업 모집 공고</t>
+          <t>2025년 수산발전기금 사업희망자(김 업체) 추가 모집 공고</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105675</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000106113</t>
         </is>
       </c>
     </row>
@@ -232,12 +232,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>과학기술정보통신부</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>경남신용보증재단</t>
+          <t>벤처기업협회</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -247,27 +247,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[경남] 2025년 소상공인 생애주기별 맞춤지원 사업 시행 공고</t>
+          <t>2025년 1-2차 ICT벤처 IR 참가기업 모집 공고</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105668</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000106111</t>
         </is>
       </c>
     </row>
@@ -279,12 +279,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>대구신용보증재단</t>
+          <t>기술보증기금</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -294,27 +294,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[대구] 북구 2025년 청년창업 특례보증 지원 공고</t>
+          <t>2025년 1차 유동화회사보증 지원 공고</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105652</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000106093</t>
         </is>
       </c>
     </row>
@@ -326,12 +326,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>경기도경제과학기술진흥원</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -341,7 +341,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[제주] 2025년 상반기 관광진흥기금 융자 및 상환지원 계획 공고</t>
+          <t>[경기] 2025년 G-Next(경기도 투자유치 유망기업) 모집 공고(INVEST 경기)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -351,17 +351,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105600</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000106019</t>
         </is>
       </c>
     </row>
@@ -373,12 +373,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>농림축산식품부</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>대전테크노파크</t>
+          <t>낙농진흥회</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -388,27 +388,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[대전] 2025년 바이오테크코리아(바이오유망기업 IR&amp;파트너링) 참여기업 모집 공고</t>
+          <t>2025년 유제품개발ㆍ생산시설 지원사업 추진계획 공고</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105606</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000106009</t>
         </is>
       </c>
     </row>
@@ -420,12 +420,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>농림축산식품부</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>대전일자리경제진흥원</t>
+          <t>낙농진흥회</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -435,27 +435,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[대전] 2025년 1인 영세 자영업자 고용ㆍ산재 보험료 지원사업 모집 공고</t>
+          <t>2025년 유가공업체 운영자금 지원사업 추진계획 공고</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105569</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000106008</t>
         </is>
       </c>
     </row>
@@ -467,12 +467,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>충청북도기업진흥원</t>
+          <t>경상북도경제진흥원</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -482,12 +482,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[충북] 2025년 중소기업육성자금 융자(이차보전) 지원계획 변경 공고</t>
+          <t>[경북] KB 소상공인 행복보탬 지원사업 통합 공고</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -497,12 +497,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105538</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000106000</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>광주신용보증재단</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -529,27 +529,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[광주] 북구 2025년 소상공인 대출 지원사업(특례보증ㆍ포용금융) 공고</t>
+          <t>[경북] 2025년 햇살에너지농사 융자지원계획 공고</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105529</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105968</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -576,12 +576,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025년 중소기업 정책자금 융자계획 변경 공고</t>
+          <t>[인천] 연수구 2025년 중소기업육성기금 융자지원(이차보전) 사업 공고</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105478</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105898</t>
         </is>
       </c>
     </row>
@@ -608,12 +608,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>산업통상자원부</t>
+          <t>특허청</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>한국에너지공단 신재생에너지센터</t>
+          <t>한국발명진흥회</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -623,27 +623,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025년 신ㆍ재생에너지 금융지원사업 지원 공고</t>
+          <t>2025년 IP보증연계 지식재산평가지원사업 공고</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>2025-03-10</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105497</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105813</t>
         </is>
       </c>
     </row>
@@ -655,12 +655,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>특허청</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>한국발명진흥회</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -670,27 +670,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025년 소상공인 대환대출 지원계획 공고</t>
+          <t>2025년 IP담보대출연계 지식재산평가지원사업 공고</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105451</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105811</t>
         </is>
       </c>
     </row>
@@ -702,12 +702,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>산업통상자원부</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>한국디자인진흥원</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -717,27 +717,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12차 디자인전문기업 금융지원 희망기업 모집 공고</t>
+          <t>[경기] 2025년 사회적경제조직 특례보증 및 이차보전 지원 사업 공고</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105447</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105787</t>
         </is>
       </c>
     </row>
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>방위사업청</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>대전상공회의소</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -764,27 +764,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[충남] 2025년 제조물 책임(PL)보험료 지원사업 참여기업 모집 공고</t>
+          <t>2025년 1차 방위산업 이차보전 융자사업 시행계획 공고</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105445</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105781</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>환경부</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>광주경제진흥상생일자리재단</t>
+          <t>한국환경산업기술원</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -811,27 +811,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[광주] 2025년 영세 소상공인 중소금융권 금융비용 지원사업 공고</t>
+          <t>2025년 녹색자산유동화증권 이차보전 지원사업 (기보1차) 공고</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105444</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105741</t>
         </is>
       </c>
     </row>
@@ -843,12 +843,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>경기도경제과학진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -858,27 +858,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[경기] 2025년 중소기업 환변동보험 지원사업 참여기업 모집 공고</t>
+          <t>2025년 스케일업금융 발행계획 공고</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105442</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105723</t>
         </is>
       </c>
     </row>
@@ -890,12 +890,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>산업통상자원부</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>울산경제일자리진흥원</t>
+          <t>한국산업단지공단</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -905,27 +905,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[울산] 2025년 중소기업 육성자금 (시설자금) 지원계획 공고</t>
+          <t>2025년 탄소중립 전환 선도프로젝트 융자지원 사업 공고</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105417</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105712</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>용인상공회의소</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -952,27 +952,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[경기] 용인시 2025년 중소기업 제조물배상책임(PL)보험료 지원사업 공고</t>
+          <t>2025년 정책자금 상환연장 대상 확대 공고</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105371</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105681</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[서울] 종로구 2025년 상반기 중소기업육성기금 융자지원 계획 공고</t>
+          <t>[경기] 부천시 중소기업 수출보험료 지원사업 참가기업 모집 공고</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105308</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105675</t>
         </is>
       </c>
     </row>
@@ -1031,12 +1031,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>한국무역보험공사</t>
+          <t>경남신용보증재단</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[부산] 2025년 단체보험 가입희망 중소기업 모집 공고</t>
+          <t>[경남] 2025년 소상공인 생애주기별 맞춤지원 사업 시행 공고</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1056,17 +1056,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105325</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105668</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>대구신용보증재단</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[경북] 구미시 2025년 중소기업 신성장동행지원자금 융자지원 계획 공고</t>
+          <t>[대구] 북구 2025년 청년창업 특례보증 지원 공고</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105296</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105652</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>제주특별자치도</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1140,27 +1140,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[경북] 구미시 2025년 3월 중소기업 운전자금 융자지원 계획 공고</t>
+          <t>[제주] 2025년 상반기 관광진흥기금 융자 및 상환지원 계획 공고</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105295</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105600</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>대전테크노파크</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[경북] 구미시 2025년 3월 중소기업 시설자금 융자지원 계획 공고</t>
+          <t>[대전] 2025년 바이오테크코리아(바이오유망기업 IR&amp;파트너링) 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105278</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105606</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>한국무역보험공사광주전남지사</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[전남] 2025년 중소기업 수출보험료 지원사업 신청안내 변경 공고</t>
+          <t>[대전] 2025년 1인 영세 자영업자 고용ㆍ산재 보험료 지원사업 모집 공고</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1249,12 +1249,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105293</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105569</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>경상북도어업기술센터</t>
+          <t>충청북도기업진흥원</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1281,27 +1281,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[경북] 2025년 수산업경영인 선발 및 지원사업 모집 재공고</t>
+          <t>[충북] 2025년 중소기업육성자금 융자(이차보전) 지원계획 변경 공고</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105288</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105538</t>
         </is>
       </c>
     </row>
@@ -1313,12 +1313,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>광주신용보증재단</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1328,27 +1328,27 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[서울] 강남구 2025년 상반기 중소기업육성기금 융자지원 계획 공고</t>
+          <t>[광주] 북구 2025년 소상공인 대출 지원사업(특례보증ㆍ포용금융) 공고</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105183</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105529</t>
         </is>
       </c>
     </row>
@@ -1360,12 +1360,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>광주경제진흥상생일자리재단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[광주] 2025년 1인 자영업자 및 소상공인 사회보험료 지원사업 공고</t>
+          <t>2025년 중소기업 정책자금 융자계획 변경 공고</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1390,12 +1390,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105017</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105478</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>한국산업기술진흥원</t>
+          <t>한국에너지공단 신재생에너지센터</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1422,27 +1422,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025년 국가첨단전략산업 기술혁신 융자사업 지원대상 기업모집 공고</t>
+          <t>2025년 신ㆍ재생에너지 금융지원사업 지원 공고</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104916</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105497</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>경남신용보증재단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1469,27 +1469,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[경남] 2025년 1인 자영업자 사회보험망(고용ㆍ산재보험료) 지원사업 공고</t>
+          <t>2025년 소상공인 대환대출 지원계획 공고</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104740</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105451</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>대전상공회의소</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1516,12 +1516,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[인천] 계양구 2025년 중소기업육성기금 융자계획 공고</t>
+          <t>[충남] 2025년 제조물 책임(PL)보험료 지원사업 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1531,12 +1531,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104723</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105445</t>
         </is>
       </c>
     </row>
@@ -1548,12 +1548,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>광주경제진흥상생일자리재단</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[울산] 남구 2025년 중소기업 경영안정자금 융자계획 공고</t>
+          <t>[광주] 2025년 영세 소상공인 중소금융권 금융비용 지원사업 공고</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1578,12 +1578,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104710</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105444</t>
         </is>
       </c>
     </row>
@@ -1595,12 +1595,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>산업통상자원부</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>한국산업기술진흥원</t>
+          <t>경기도경제과학진흥원</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1610,27 +1610,27 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>혁신 프리미어 1000 산업통상자원부 선정계획 공고</t>
+          <t>[경기] 2025년 중소기업 환변동보험 지원사업 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104684</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105442</t>
         </is>
       </c>
     </row>
@@ -1642,12 +1642,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>대전일자리경제진흥원</t>
+          <t>울산경제일자리진흥원</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1657,27 +1657,27 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[대전] 소상공인 육아휴직자 대체인력 인건비 지원사업 공고</t>
+          <t>[울산] 2025년 중소기업 육성자금 (시설자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104574</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105417</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>용인상공회의소</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1704,27 +1704,27 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[인천] 2025년 식품진흥기금 융자사업 공고</t>
+          <t>[경기] 용인시 2025년 중소기업 제조물배상책임(PL)보험료 지원사업 공고</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104563</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105371</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1736,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>세종특별자치시</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1751,27 +1751,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[세종] 2025년 식품진흥기금 융자사업 시행 공고</t>
+          <t>[서울] 종로구 2025년 상반기 중소기업육성기금 융자지원 계획 공고</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104561</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105308</t>
         </is>
       </c>
     </row>
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>세종특별자치시</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>한국자활복지개발원</t>
+          <t>한국무역보험공사</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1798,27 +1798,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[세종] 2025년 자활기업 금융지원(이차보전) 계획 공고</t>
+          <t>[부산] 2025년 단체보험 가입희망 중소기업 모집 공고</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104554</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105325</t>
         </is>
       </c>
     </row>
@@ -1830,12 +1830,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1845,12 +1845,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025년 우리동네 크라우드펀딩 지원사업(후원형) 소상공인 모집 공고</t>
+          <t>[경북] 구미시 2025년 중소기업 신성장동행지원자금 융자지원 계획 공고</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104548</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105296</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>한국무역보험공사광주전남지사</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025년 우리동네 크라우드펀딩 지원사업(증권형) 소상공인 모집 공고</t>
+          <t>[전남] 2025년 중소기업 수출보험료 지원사업 신청안내 변경 공고</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104546</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105293</t>
         </is>
       </c>
     </row>
@@ -1924,12 +1924,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1939,27 +1939,27 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025년 우리동네 크라우드펀딩 지원사업(대출형) 소상공인 모집 공고</t>
+          <t>[서울] 강남구 2025년 상반기 중소기업육성기금 융자지원 계획 공고</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104545</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105183</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>광주경제진흥상생일자리재단</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1986,12 +1986,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[경남] 2025년 식품진흥기금 융자금 지원계획 공고</t>
+          <t>[광주] 2025년 1인 자영업자 및 소상공인 사회보험료 지원사업 공고</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104485</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000105017</t>
         </is>
       </c>
     </row>
@@ -2018,12 +2018,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>농촌진흥청</t>
+          <t>산업통상자원부</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>한국농업기술진흥원</t>
+          <t>한국산업기술진흥원</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2033,27 +2033,27 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025년 상반기 기술창업 자금지원(융자)사업 수정 공고</t>
+          <t>2025년 국가첨단전략산업 기술혁신 융자사업 지원대상 기업모집 공고</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104458</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104916</t>
         </is>
       </c>
     </row>
@@ -2065,12 +2065,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>광주경제진흥상생일자리재단</t>
+          <t>경남신용보증재단</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2080,27 +2080,27 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[광주] 2025년 수출진흥자금 융자지원 계획 공고</t>
+          <t>[경남] 2025년 1인 자영업자 사회보험망(고용ㆍ산재보험료) 지원사업 공고</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104450</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104740</t>
         </is>
       </c>
     </row>
@@ -2112,12 +2112,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>부산경제진흥원</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2127,12 +2127,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[부산] 2025년 중소기업 자금지원계획 수정 공고</t>
+          <t>[인천] 계양구 2025년 중소기업육성기금 융자계획 공고</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2142,12 +2142,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104412</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104723</t>
         </is>
       </c>
     </row>
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[서울] 식품진흥기금 융자계획 공고</t>
+          <t>[울산] 남구 2025년 중소기업 경영안정자금 융자계획 공고</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2189,12 +2189,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104426</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104710</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>기술보증기금</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2221,27 +2221,27 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[부산] 2025년 탄소저감 기술기업 금융비용 전부 지원 사업 참여기업 모집 공고</t>
+          <t>[대전] 소상공인 육아휴직자 대체인력 인건비 지원사업 공고</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104378</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104574</t>
         </is>
       </c>
     </row>
@@ -2253,12 +2253,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>대중소기업농어업협력재단</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2268,12 +2268,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>중소기업 기술보호 정책보험 지원사업(2025년 중소기업 기술보호 지원사업 공고)</t>
+          <t>[인천] 2025년 식품진흥기금 융자사업 공고</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2283,12 +2283,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104235</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104563</t>
         </is>
       </c>
     </row>
@@ -2300,12 +2300,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>세종특별자치시</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>지방중소벤처기업청</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2315,27 +2315,27 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[경남] 한국은행 중소기업 지원자금 지원을 위한 밀집지역 소재 중소기업 금융중개지원대출 신청 공고</t>
+          <t>[세종] 2025년 식품진흥기금 융자사업 시행 공고</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104144</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104561</t>
         </is>
       </c>
     </row>
@@ -2347,12 +2347,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>세종특별자치시</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>한국자활복지개발원</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2362,12 +2362,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025년 민간투자연계형 매칭융자(LIPSⅠ) 소상공인 모집 공고</t>
+          <t>[세종] 2025년 자활기업 금융지원(이차보전) 계획 공고</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104112</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104554</t>
         </is>
       </c>
     </row>
@@ -2394,12 +2394,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>직접수행</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[제주] 식품진흥기금 융자지원 계획 공고</t>
+          <t>2025년 우리동네 크라우드펀딩 지원사업(후원형) 소상공인 모집 공고</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2424,12 +2424,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104094</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104548</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>경기신용보증재단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[경기] 부천시 2025년 소상공인 특례보증ㆍ이차보전 지원계획 공고</t>
+          <t>2025년 우리동네 크라우드펀딩 지원사업(증권형) 소상공인 모집 공고</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2471,12 +2471,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104087</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104546</t>
         </is>
       </c>
     </row>
@@ -2488,12 +2488,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>광주경제진흥상생일자리재단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2503,27 +2503,27 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[광주] 2025년 상반기 경영안정자금 지원계획 공고</t>
+          <t>2025년 우리동네 크라우드펀딩 지원사업(대출형) 소상공인 모집 공고</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104067</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104545</t>
         </is>
       </c>
     </row>
@@ -2535,12 +2535,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>신용보증기금</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[충북] 2025년 사회적기업 육성자금 이차보전금 지원계획 공고</t>
+          <t>[경남] 2025년 식품진흥기금 융자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2565,12 +2565,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104066</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104485</t>
         </is>
       </c>
     </row>
@@ -2582,12 +2582,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>농촌진흥청</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>인천신용보증재단</t>
+          <t>한국농업기술진흥원</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2597,27 +2597,27 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[인천] 2025년 상반기 소상공인시장진흥자금 융자 계획 공고</t>
+          <t>2025년 상반기 기술창업 자금지원(융자)사업 수정 공고</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104064</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104458</t>
         </is>
       </c>
     </row>
@@ -2629,12 +2629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>한국무역보험공사제주지사</t>
+          <t>부산경제진흥원</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2644,12 +2644,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[제주] 2025년 수출보험료 지원사업 모집 공고</t>
+          <t>[부산] 2025년 중소기업 자금지원계획 수정 공고</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104050</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104412</t>
         </is>
       </c>
     </row>
@@ -2676,12 +2676,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>문화체육관광부</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>신용보증재단중앙회</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2691,27 +2691,27 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025년 관광진흥개발기금 신용보증부 운영자금 특별융자 지원 지침 공고</t>
+          <t>[서울] 식품진흥기금 융자계획 공고</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103978</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104426</t>
         </is>
       </c>
     </row>
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>기술보증기금</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[인천] 서구 2025년 중소기업육성기금 융자계획 공고</t>
+          <t>[부산] 2025년 탄소저감 기술기업 금융비용 전부 지원 사업 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2753,12 +2753,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103963</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104378</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>농촌진흥청</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>한국농업기술진흥원</t>
+          <t>대중소기업농어업협력재단</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2785,27 +2785,27 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025년 상반기 기술창업 자금지원(융자)사업 공고</t>
+          <t>중소기업 기술보호 정책보험 지원사업(2025년 중소기업 기술보호 지원사업 공고)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103933</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104235</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>인천테크노파크</t>
+          <t>지방중소벤처기업청</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2832,27 +2832,27 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_이자차액보전) 지원계획 공고</t>
+          <t>[경남] 한국은행 중소기업 지원자금 지원을 위한 밀집지역 소재 중소기업 금융중개지원대출 신청 공고</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103922</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104144</t>
         </is>
       </c>
     </row>
@@ -2864,12 +2864,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>인천테크노파크</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2879,27 +2879,27 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_기계공장확보) 지원계획 공고</t>
+          <t>2025년 민간투자연계형 매칭융자(LIPSⅠ) 소상공인 모집 공고</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103912</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104112</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>제주특별자치도</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>인천테크노파크</t>
+          <t>직접수행</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_벤처창업자금) 지원계획 공고</t>
+          <t>[제주] 식품진흥기금 융자지원 계획 공고</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2936,17 +2936,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103910</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104094</t>
         </is>
       </c>
     </row>
@@ -2958,12 +2958,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>인천테크노파크</t>
+          <t>경기신용보증재단</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2973,27 +2973,27 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_에너지효율화 자금) 지원계획 공고</t>
+          <t>[경기] 부천시 2025년 소상공인 특례보증ㆍ이차보전 지원계획 공고</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103908</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104087</t>
         </is>
       </c>
     </row>
@@ -3005,12 +3005,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>인천테크노파크</t>
+          <t>광주경제진흥상생일자리재단</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_재해기업자금) 지원계획 공고</t>
+          <t>[광주] 2025년 상반기 경영안정자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3035,12 +3035,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103906</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104067</t>
         </is>
       </c>
     </row>
@@ -3052,12 +3052,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>산림청</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>산림조합중앙회</t>
+          <t>신용보증기금</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3067,27 +3067,27 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025년 해외산림자원개발 이차보전 사업 공고</t>
+          <t>[충북] 2025년 사회적기업 육성자금 이차보전금 지원계획 공고</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103901</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104066</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>인천테크노파크</t>
+          <t>인천신용보증재단</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3114,27 +3114,27 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[인천] 2025년 중소기업육성자금 지원계획 공고</t>
+          <t>[인천] 2025년 상반기 소상공인시장진흥자금 융자 계획 공고</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103880</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104064</t>
         </is>
       </c>
     </row>
@@ -3146,12 +3146,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>국토교통부</t>
+          <t>제주특별자치도</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>신용보증재단중앙회</t>
+          <t>한국무역보험공사제주지사</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3161,12 +3161,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025년 스마트물류센터 이차보전 지원 사업 공고</t>
+          <t>[제주] 2025년 수출보험료 지원사업 모집 공고</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103887</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000104050</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>세종특별자치시</t>
+          <t>문화체육관광부</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>세종일자리경제진흥원</t>
+          <t>신용보증재단중앙회</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3208,27 +3208,27 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[세종] 2025년 중소기업육성자금 지원계획 공고</t>
+          <t>2025년 관광진흥개발기금 신용보증부 운영자금 특별융자 지원 지침 공고</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103886</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103978</t>
         </is>
       </c>
     </row>
@@ -3240,12 +3240,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>울산신용보증재단</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[울산] 울주군 2025년 제1차 소상공인 경영안정자금 지원 공고</t>
+          <t>[인천] 서구 2025년 중소기업육성기금 융자계획 공고</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3270,12 +3270,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103850</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103963</t>
         </is>
       </c>
     </row>
@@ -3287,12 +3287,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>농촌진흥청</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>대구신용보증재단</t>
+          <t>한국농업기술진흥원</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3302,27 +3302,27 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[대구] 2025년 중소기업경영안정자금 지원계획 공고(이자지원)</t>
+          <t>2025년 상반기 기술창업 자금지원(융자)사업 공고</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103775</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103933</t>
         </is>
       </c>
     </row>
@@ -3334,12 +3334,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>세종특별자치시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>세종신용보증재단</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3349,27 +3349,27 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[세종] 2025년 소상공인자금 지원계획 공고</t>
+          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_이자차액보전) 지원계획 공고</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103746</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103922</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>대전신용보증재단</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3396,27 +3396,27 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[대전] 소상공인 경영위기극복 특례보증 지원 공고</t>
+          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_기계공장확보) 지원계획 공고</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103763</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103912</t>
         </is>
       </c>
     </row>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>대구신용보증재단</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3443,27 +3443,27 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[대구] 2025년 중소기업경영안정자금(이자지원) 지원계획 공고</t>
+          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_벤처창업자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103745</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103910</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>충북신용보증재단</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3490,27 +3490,27 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[충북] 진천군 2025년 1차 소상공인 생거진천 으뜸론(Loan) 지원계획 공고</t>
+          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_에너지효율화 자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103739</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103908</t>
         </is>
       </c>
     </row>
@@ -3522,12 +3522,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>충북신용보증재단</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3537,27 +3537,27 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[충북] 옥천군 2025년 소상공인 이자차액보전금 지원사업 공고</t>
+          <t>[인천] 2025년 중소기업육성자금(구조고도화자금_재해기업자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103742</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103906</t>
         </is>
       </c>
     </row>
@@ -3569,12 +3569,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>충북신용보증재단</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[충북] 증평군 소상공인 지원자금 이차보전금 신청 공고</t>
+          <t>[인천] 2025년 중소기업육성자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103720</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103880</t>
         </is>
       </c>
     </row>
@@ -3616,12 +3616,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>국토교통부</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>충북신용보증재단</t>
+          <t>신용보증재단중앙회</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[충북] 음성군 2025년 소상공인 지원자금 지원계획 공고</t>
+          <t>2025년 스마트물류센터 이차보전 지원 사업 공고</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103737</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103887</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>세종특별자치시</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>충북신용보증재단</t>
+          <t>세종일자리경제진흥원</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3678,27 +3678,27 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[충북] 제천시 2025년 소상공인 이차보전금 신청 공고</t>
+          <t>[세종] 2025년 중소기업육성자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103736</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103886</t>
         </is>
       </c>
     </row>
@@ -3710,12 +3710,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>대전일자리경제진흥원</t>
+          <t>울산신용보증재단</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3725,27 +3725,27 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[대전] 소상공인 난임부부 시술비 지원사업 공고</t>
+          <t>[울산] 울주군 2025년 제1차 소상공인 경영안정자금 지원 공고</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103732</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103850</t>
         </is>
       </c>
     </row>
@@ -3757,12 +3757,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>충청남도경제진흥원</t>
+          <t>대구신용보증재단</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3772,12 +3772,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[충남] 2025년 중소기업육성자금 지원계획 공고</t>
+          <t>[대구] 2025년 중소기업경영안정자금 지원계획 공고(이자지원)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3787,12 +3787,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103715</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103775</t>
         </is>
       </c>
     </row>
@@ -3804,12 +3804,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>세종특별자치시</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>경기신용보증재단</t>
+          <t>세종신용보증재단</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3819,12 +3819,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[경기] 2025년 중소기업육성자금 융자지원계획 공고</t>
+          <t>[세종] 2025년 소상공인자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103722</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103746</t>
         </is>
       </c>
     </row>
@@ -3851,12 +3851,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>경남신용보증재단</t>
+          <t>대전신용보증재단</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3866,27 +3866,27 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[경남] 2025년 소상공인 정책자금 운용계획 공고</t>
+          <t>[대전] 소상공인 경영위기극복 특례보증 지원 공고</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
           <t>2025-01-15</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103705</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103763</t>
         </is>
       </c>
     </row>
@@ -3898,12 +3898,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>서울신용보증재단</t>
+          <t>대구신용보증재단</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3913,12 +3913,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[서울] 2025년 중소기업육성기금 사회적경제계정 사회적경제기업 융자지원 계획 공고</t>
+          <t>[대구] 2025년 중소기업경영안정자금(이자지원) 지원계획 공고</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3928,12 +3928,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103680</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103745</t>
         </is>
       </c>
     </row>
@@ -3945,12 +3945,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>충북신용보증재단</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3960,12 +3960,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[인천] 부평구 2025년 중소기업(소상공인) 운전자금(이차보전금) 융자계획 공고</t>
+          <t>[충북] 진천군 2025년 1차 소상공인 생거진천 으뜸론(Loan) 지원계획 공고</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3975,12 +3975,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103667</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103739</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>한국무역보험공사충북지사</t>
+          <t>충북신용보증재단</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4007,27 +4007,27 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[충북] 2025년 수출기업 무역보험 지원사업 참여기업 모집 공고</t>
+          <t>[충북] 옥천군 2025년 소상공인 이자차액보전금 지원사업 공고</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103642</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103742</t>
         </is>
       </c>
     </row>
@@ -4039,12 +4039,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>기술보증기금</t>
+          <t>충북신용보증재단</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4054,12 +4054,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025년 중소기업 매출채권팩토링 지원계획 공고</t>
+          <t>[충북] 증평군 소상공인 지원자금 이차보전금 신청 공고</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4069,12 +4069,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103596</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103720</t>
         </is>
       </c>
     </row>
@@ -4086,12 +4086,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>충북신용보증재단</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4101,12 +4101,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025년 중소기업 동반성장 네트워크론 지원계획 공고</t>
+          <t>[충북] 음성군 2025년 소상공인 지원자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4116,12 +4116,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103612</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103737</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4133,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>대전일자리경제진흥원</t>
+          <t>충북신용보증재단</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4148,27 +4148,27 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[대전] 2025년 상반기 중소기업 창업 및 경쟁력강화사업자금 지원 공고</t>
+          <t>[충북] 제천시 2025년 소상공인 이차보전금 신청 공고</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103593</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103736</t>
         </is>
       </c>
     </row>
@@ -4180,12 +4180,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4195,27 +4195,27 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>밸류체인안정화자금-매출채권팩토링(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>[대전] 소상공인 난임부부 시술비 지원사업 공고</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103592</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103732</t>
         </is>
       </c>
     </row>
@@ -4227,12 +4227,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>충청남도경제진흥원</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4242,12 +4242,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>밸류체인안정화자금-동반성장 네트워크론(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>[충남] 2025년 중소기업육성자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4257,12 +4257,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103591</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103715</t>
         </is>
       </c>
     </row>
@@ -4274,12 +4274,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>경기신용보증재단</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4289,12 +4289,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>긴급경영안정자금-일시적경영애로(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>[경기] 2025년 중소기업육성자금 융자지원계획 공고</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4304,12 +4304,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103590</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103722</t>
         </is>
       </c>
     </row>
@@ -4321,12 +4321,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>경남신용보증재단</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4336,12 +4336,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>긴급경영안정자금-재해중소기업지원(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>[경남] 2025년 소상공인 정책자금 운용계획 공고</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4351,12 +4351,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103589</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103705</t>
         </is>
       </c>
     </row>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>대전일자리경제진흥원</t>
+          <t>서울신용보증재단</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4383,27 +4383,27 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[대전] 2025년 상반기 중소기업 구매조건 생산지원자금 지원 공고</t>
+          <t>[서울] 2025년 중소기업육성기금 사회적경제계정 사회적경제기업 융자지원 계획 공고</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103605</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103680</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>대전일자리경제진흥원</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4430,27 +4430,27 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[대전] 2025년 상반기 중소기업 지역특화 협약보증 지원 공고</t>
+          <t>[인천] 부평구 2025년 중소기업(소상공인) 운전자금(이차보전금) 융자계획 공고</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103604</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103667</t>
         </is>
       </c>
     </row>
@@ -4462,12 +4462,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>한국무역보험공사충북지사</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4477,27 +4477,27 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>재창업자금(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>[충북] 2025년 수출기업 무역보험 지원사업 참여기업 모집 공고</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103602</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103642</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>기술보증기금</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4524,12 +4524,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>민간투자 연계형 매칭융자(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>2025년 중소기업 매출채권팩토링 지원계획 공고</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103601</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103596</t>
         </is>
       </c>
     </row>
@@ -4571,12 +4571,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>혁신성장촉진자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>2025년 중소기업 동반성장 네트워크론 지원계획 공고</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103588</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103612</t>
         </is>
       </c>
     </row>
@@ -4603,12 +4603,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4618,17 +4618,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[인천] 동구 인구감소(관심)지역 기업지원 특례보증 금융지원 신청 공고</t>
+          <t>[대전] 2025년 상반기 중소기업 창업 및 경쟁력강화사업자금 지원 공고</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103587</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103593</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>소공인특화자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>밸류체인안정화자금-매출채권팩토링(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103580</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103592</t>
         </is>
       </c>
     </row>
@@ -4697,12 +4697,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>대전일자리경제진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4712,17 +4712,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[대전] 2025년 상반기 중소기업 경영안정자금 지원 공고</t>
+          <t>밸류체인안정화자금-동반성장 네트워크론(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103586</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103591</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>성장기반자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>긴급경영안정자금-일시적경영애로(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103579</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103590</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>청년고용연계자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>긴급경영안정자금-재해중소기업지원(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103577</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103589</t>
         </is>
       </c>
     </row>
@@ -4838,12 +4838,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4853,27 +4853,27 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>재도약지원자금-구조개선전용자금(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>[대전] 2025년 상반기 중소기업 구매조건 생산지원자금 지원 공고</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103582</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103605</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4885,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4900,27 +4900,27 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>재도약지원자금-사업전환자금(사업재편ㆍ산업경쟁력강화ㆍ통상변화대응)(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>[대전] 2025년 상반기 중소기업 지역특화 협약보증 지원 공고</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103575</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103604</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>재도전특별자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>재창업자금(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4962,12 +4962,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103574</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103602</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>재도약지원자금-사업전환자금(일반)(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>민간투자 연계형 매칭융자(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5009,12 +5009,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103573</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103601</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>특별경영안정자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>혁신성장촉진자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5056,12 +5056,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103572</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103588</t>
         </is>
       </c>
     </row>
@@ -5073,12 +5073,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5088,12 +5088,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>신성장기반자금-제조현장스마트화(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>[인천] 동구 인구감소(관심)지역 기업지원 특례보증 금융지원 신청 공고</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103571</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103587</t>
         </is>
       </c>
     </row>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>신성장기반자금-Net Zero 유망기업 지원(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>소공인특화자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5150,12 +5150,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103581</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103580</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>대전일자리경제진흥원</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5182,27 +5182,27 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>신용취약소상공인자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>[대전] 2025년 상반기 중소기업 경영안정자금 지원 공고</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103560</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103586</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>장애인기업지원자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>성장기반자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5244,12 +5244,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103570</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103579</t>
         </is>
       </c>
     </row>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>신성장기반자금-스케일업금융(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>청년고용연계자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5291,12 +5291,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103559</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103577</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>긴급경영안정자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>재도약지원자금-구조개선전용자금(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103569</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103582</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>신성장기반자금-혁신성장지원자금(협동화)(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>재도약지원자금-사업전환자금(사업재편ㆍ산업경쟁력강화ㆍ통상변화대응)(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103568</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103575</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>일반경영안정자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
+          <t>재도전특별자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103558</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103574</t>
         </is>
       </c>
     </row>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>신성장기반자금-혁신성장지원자금(일반)(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>재도약지원자금-사업전환자금(일반)(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103565</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103573</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>신시장진출지원자금-수출기업글로벌화(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>특별경영안정자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103557</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103572</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>신시장진출지원자금-내수기업수출기업화(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>신성장기반자금-제조현장스마트화(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103561</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103571</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>혁신창업사업화자금-개발기술사업화자금(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>신성장기반자금-Net Zero 유망기업 지원(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103555</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103581</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>혁신창업사업화자금-창업기반지원자금(청년전용창업자금)(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>신용취약소상공인자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103553</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103560</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>혁신창업사업화자금-창업기반지원자금(일반)(2025년 중소기업 정책자금 융자계획 공고)</t>
+          <t>장애인기업지원자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103547</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103570</t>
         </is>
       </c>
     </row>
@@ -5731,12 +5731,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>전라남도중소기업일자리경제진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[전남] 2025년 중소기업 육성자금(중소기업특별경영안정자금) 지원계획 공고</t>
+          <t>신성장기반자금-스케일업금융(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103531</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103559</t>
         </is>
       </c>
     </row>
@@ -5778,12 +5778,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>전라남도중소기업일자리경제진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[전남] 2025년 중소기업 육성자금(중소유통업 구조개선자금) 지원계획 공고</t>
+          <t>긴급경영안정자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103529</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103569</t>
         </is>
       </c>
     </row>
@@ -5825,12 +5825,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>전라남도중소기업일자리경제진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[전남] 2025년 중소기업 육성자금(벤처기업육성자금) 지원계획 공고</t>
+          <t>신성장기반자금-혁신성장지원자금(협동화)(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103545</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103568</t>
         </is>
       </c>
     </row>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>전라남도중소기업일자리경제진흥원</t>
+          <t>소상공인시장진흥공단</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[전남] 2025년 중소기업 육성자금(창업 및 경쟁력강화자금) 지원계획 공고</t>
+          <t>일반경영안정자금(2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103528</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103558</t>
         </is>
       </c>
     </row>
@@ -5919,12 +5919,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>문화체육관광부</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>국민체육진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5934,17 +5934,17 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2025년 국민체육진흥기금 스포츠산업융자(튼튼론) 신청 공고</t>
+          <t>신성장기반자금-혁신성장지원자금(일반)(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103500</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103565</t>
         </is>
       </c>
     </row>
@@ -5966,12 +5966,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>경상북도경제진흥원</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[경북] 2025년 벤처기업 육성자금 운용계획 공고</t>
+          <t>신시장진출지원자금-수출기업글로벌화(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5996,12 +5996,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103499</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103557</t>
         </is>
       </c>
     </row>
@@ -6013,12 +6013,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>문화체육관광부</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>국민체육진흥공단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6028,27 +6028,27 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2025년 국민체육진흥기금 스포츠산업 이차보전사업 신청 공고</t>
+          <t>신시장진출지원자금-내수기업수출기업화(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103506</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103561</t>
         </is>
       </c>
     </row>
@@ -6060,12 +6060,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>기술보증기금</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6075,12 +6075,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[대구] 달성군 2025년 기술중소기업 특례보증 지원계획 공고</t>
+          <t>혁신창업사업화자금-개발기술사업화자금(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6090,12 +6090,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103483</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103555</t>
         </is>
       </c>
     </row>
@@ -6107,12 +6107,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>대구신용보증재단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6122,12 +6122,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[대구] 달성군 2025년 중소기업 경영안정자금(이차보전) 지원계획 공고</t>
+          <t>혁신창업사업화자금-창업기반지원자금(청년전용창업자금)(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6137,12 +6137,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103482</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103553</t>
         </is>
       </c>
     </row>
@@ -6154,12 +6154,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>중소벤처기업부</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>경기신용보증재단</t>
+          <t>중소벤처기업진흥공단</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[경기] 부천시 2025년 특례보증 지원 계획 공고</t>
+          <t>혁신창업사업화자금-창업기반지원자금(일반)(2025년 중소기업 정책자금 융자계획 공고)</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6184,12 +6184,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103458</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103547</t>
         </is>
       </c>
     </row>
@@ -6201,12 +6201,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>전라남도중소기업일자리경제진흥원</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6216,27 +6216,27 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[부산] 사상구 2025년 소상공인 보증료 지원사업 대상자 모집 공고</t>
+          <t>[전남] 2025년 중소기업 육성자금(중소기업특별경영안정자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103467</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103531</t>
         </is>
       </c>
     </row>
@@ -6248,12 +6248,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>기초자치단체</t>
+          <t>전라남도중소기업일자리경제진흥원</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6263,12 +6263,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[울산] 2025년 식품진흥기금 융자사업 시행 공고</t>
+          <t>[전남] 2025년 중소기업 육성자금(중소유통업 구조개선자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6278,12 +6278,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103452</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103529</t>
         </is>
       </c>
     </row>
@@ -6295,12 +6295,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>제주특별자치도경제통상진흥원</t>
+          <t>전라남도중소기업일자리경제진흥원</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[제주] 2025년 중소기업육성자금 융자지원계획 공고</t>
+          <t>[전남] 2025년 중소기업 육성자금(벤처기업육성자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6325,12 +6325,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103449</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103545</t>
         </is>
       </c>
     </row>
@@ -6342,12 +6342,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>울산신용보증재단</t>
+          <t>전라남도중소기업일자리경제진흥원</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6357,12 +6357,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[울산] 2025년 1차 소상공인 경영안정자금 융자지원계획 공고</t>
+          <t>[전남] 2025년 중소기업 육성자금(창업 및 경쟁력강화자금) 지원계획 공고</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6372,12 +6372,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103445</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103528</t>
         </is>
       </c>
     </row>
@@ -6389,12 +6389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>문화체육관광부</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>서울신용보증재단</t>
+          <t>국민체육진흥공단</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6404,27 +6404,27 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[서울] 2025년 중소기업육성자금 융자지원계획 공고</t>
+          <t>2025년 국민체육진흥기금 스포츠산업융자(튼튼론) 신청 공고</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103418</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103500</t>
         </is>
       </c>
     </row>
@@ -6436,12 +6436,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>한국무역보험공사경남지역본부</t>
+          <t>경상북도경제진흥원</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6451,27 +6451,27 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[경남] 진주시 2025년 중소기업 개별 수출보험료 지원사업 공고</t>
+          <t>[경북] 2025년 벤처기업 육성자금 운용계획 공고</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103434</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103499</t>
         </is>
       </c>
     </row>
@@ -6483,12 +6483,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>문화체육관광부</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>전라남도중소기업일자리경제진흥원</t>
+          <t>국민체육진흥공단</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6498,27 +6498,27 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[전남] 2025년 중소기업 육성자금 지원계획 공고</t>
+          <t>2025년 국민체육진흥기금 스포츠산업 이차보전사업 신청 공고</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103413</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103506</t>
         </is>
       </c>
     </row>
@@ -6530,12 +6530,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>부산경제진흥원</t>
+          <t>기술보증기금</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6545,12 +6545,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[부산] 2025년 중소기업 자금지원계획 공고</t>
+          <t>[대구] 달성군 2025년 기술중소기업 특례보증 지원계획 공고</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6560,12 +6560,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103423</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103483</t>
         </is>
       </c>
     </row>
@@ -6577,12 +6577,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>인천테크노파크</t>
+          <t>대구신용보증재단</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6592,27 +6592,27 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[인천] 2024년 중소기업 긴급 경영안정자금 지원 공고</t>
+          <t>[대구] 달성군 2025년 중소기업 경영안정자금(이차보전) 지원계획 공고</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103377</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103482</t>
         </is>
       </c>
     </row>
@@ -6624,12 +6624,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>문화체육관광부</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>한국관광협회중앙회</t>
+          <t>경기신용보증재단</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6639,27 +6639,27 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2025년 상반기 관광진흥개발기금 융자지원지침 공고</t>
+          <t>[경기] 부천시 2025년 특례보증 지원 계획 공고</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103372</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103458</t>
         </is>
       </c>
     </row>
@@ -6671,12 +6671,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>전북특별자치도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>전북특별자치도경제통상진흥원</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[전북] 2025년 중소기업 육성자금 융자 지원계획 공고</t>
+          <t>[부산] 사상구 2025년 소상공인 보증료 지원사업 대상자 모집 공고</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -6696,17 +6696,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103392</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103467</t>
         </is>
       </c>
     </row>
@@ -6718,12 +6718,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>문화체육관광부</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>한국관광협회중앙회</t>
+          <t>기초자치단체</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6733,27 +6733,27 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2025년 상반기 관광진흥개발기금 이차보전 지원 지침 공고</t>
+          <t>[울산] 2025년 식품진흥기금 융자사업 시행 공고</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103368</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103452</t>
         </is>
       </c>
     </row>
@@ -6765,12 +6765,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>제주특별자치도</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>충청북도기업진흥원</t>
+          <t>제주특별자치도경제통상진흥원</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6780,27 +6780,27 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[충북] 2025년 중소기업육성자금 융자(이차보전) 지원계획 공고</t>
+          <t>[제주] 2025년 중소기업육성자금 융자지원계획 공고</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
           <t>2025-01-06</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>2025-09-12</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2024-12-27</t>
-        </is>
-      </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103387</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103449</t>
         </is>
       </c>
     </row>
@@ -6812,12 +6812,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>경상북도경제진흥원</t>
+          <t>울산신용보증재단</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6827,27 +6827,27 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[경북] 2025년 창업 및 경쟁력강화 사업자금 지원 계획 공고</t>
+          <t>[울산] 2025년 1차 소상공인 경영안정자금 융자지원계획 공고</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
           <t>2025-01-06</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2024-12-27</t>
-        </is>
-      </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103381</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103445</t>
         </is>
       </c>
     </row>
@@ -6859,12 +6859,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>서울신용보증재단</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고</t>
+          <t>[서울] 2025년 중소기업육성자금 융자지원계획 공고</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6889,12 +6889,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103358</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103418</t>
         </is>
       </c>
     </row>
@@ -6906,12 +6906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>중소벤처기업진흥공단</t>
+          <t>한국무역보험공사경남지역본부</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2025년 중소기업 정책자금 융자계획 공고</t>
+          <t>[경남] 진주시 2025년 중소기업 개별 수출보험료 지원사업 공고</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6931,17 +6931,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103364</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103434</t>
         </is>
       </c>
     </row>
@@ -6953,12 +6953,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>농림축산식품부</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>한국농수산식품유통공사</t>
+          <t>전라남도중소기업일자리경제진흥원</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6968,27 +6968,27 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2025년 농수산식품 정책자금 융자 공고</t>
+          <t>[전남] 2025년 중소기업 육성자금 지원계획 공고</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103362</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103413</t>
         </is>
       </c>
     </row>
@@ -7000,12 +7000,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>금융위원회</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>KDB산업은행</t>
+          <t>부산경제진흥원</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7015,27 +7015,27 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2024년 KDB산업은행 온렌딩 대출 제도 안내</t>
+          <t>[부산] 2025년 중소기업 자금지원계획 공고</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000097263</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103423</t>
         </is>
       </c>
     </row>
@@ -7047,12 +7047,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>중소벤처기업부</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>소상공인시장진흥공단</t>
+          <t>인천테크노파크</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7062,27 +7062,27 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>소상공인 정책자금(대리대출) 3차 만기연장 지원 안내</t>
+          <t>[인천] 2024년 중소기업 긴급 경영안정자금 지원 공고</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000084838</t>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103377</t>
         </is>
       </c>
     </row>
@@ -7094,40 +7094,510 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
+          <t>문화체육관광부</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>한국관광협회중앙회</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2025년 상반기 관광진흥개발기금 융자지원지침 공고</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103372</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>전북특별자치도</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>전북특별자치도경제통상진흥원</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[전북] 2025년 중소기업 육성자금 융자 지원계획 공고</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103392</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>문화체육관광부</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>한국관광협회중앙회</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2025년 상반기 관광진흥개발기금 이차보전 지원 지침 공고</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103368</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>충청북도기업진흥원</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>[충북] 2025년 중소기업육성자금 융자(이차보전) 지원계획 공고</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103387</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>경상북도경제진흥원</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>[경북] 2025년 창업 및 경쟁력강화 사업자금 지원 계획 공고</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103381</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
           <t>중소벤처기업부</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>소상공인시장진흥공단</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>금융</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2025년 중소벤처기업부 소관 소상공인 정책자금 융자계획 공고</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103358</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>중소벤처기업부</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>중소벤처기업진흥공단</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2025년 중소기업 정책자금 융자계획 공고</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103364</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>농림축산식품부</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>한국농수산식품유통공사</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2025년 농수산식품 정책자금 융자 공고</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000103362</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>금융위원회</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>KDB산업은행</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2024년 KDB산업은행 온렌딩 대출 제도 안내</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000097263</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>중소벤처기업부</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>소상공인시장진흥공단</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>소상공인 정책자금(대리대출) 3차 만기연장 지원 안내</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000084838</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>중소벤처기업부</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>소상공인시장진흥공단</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>금융</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
         <is>
           <t>소상공인 정책자금(직접대출) 3차 만기연장 지원 안내</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>2025-09-05</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>https://www.bizinfo.go.kr/web/lay1/bbs/S1T122C128/AS/74/view.do?pblancId=PBLN_000000000084853</t>
         </is>
